--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]; having enacted a behaviour [BCIO:050477]; abstinence from a behaviour [BCIO:050451]; behaviour change intervention scenario [BCIO:001000]; behaviour change intervention context [BCIO:005000]; behaviour change intervention delivery [BCIO:008000]; behaviour change intervention source [BCIO:010000]; abstinence duration [BCIO:050449]; behaviour change intervention study investigator [BCIO:030000]; research study sample [BCIO:050551]; behaviour change intervention mechanism of action [BCIO:006000]</t>
+          <t xml:space="preserve">outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]; having enacted a behaviour [BCIO:050477]; abstinence from a behaviour [BCIO:050451]; behaviour change intervention scenario [BCIO:001000]; behaviour change intervention context [BCIO:005000]; behaviour change intervention delivery [BCIO:008000]; behaviour change intervention source [BCIO:010000]; abstinence duration [BCIO:050449]; behaviour change intervention study investigator [BCIO:030000]; research study sample [BCIO:050551]; behaviour change intervention mechanism of action [BCIO:006000] </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
